--- a/data/relevant frame selection/ship_movement_frames.xlsx
+++ b/data/relevant frame selection/ship_movement_frames.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="297">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -118,6 +118,9 @@
     <t>com</t>
   </si>
   <si>
+    <t>remitteren</t>
+  </si>
+  <si>
     <t>vertreck</t>
   </si>
   <si>
@@ -190,6 +193,9 @@
     <t>overvaren</t>
   </si>
   <si>
+    <t>remitteeren</t>
+  </si>
+  <si>
     <t>retourneeren</t>
   </si>
   <si>
@@ -277,6 +283,9 @@
     <t>com:9</t>
   </si>
   <si>
+    <t>remitteren:9</t>
+  </si>
+  <si>
     <t>vertreck:9</t>
   </si>
   <si>
@@ -349,6 +358,9 @@
     <t>overvaren:5</t>
   </si>
   <si>
+    <t>remitteeren:5</t>
+  </si>
+  <si>
     <t>retourneeren:5</t>
   </si>
   <si>
@@ -427,6 +439,9 @@
     <t>{22705:komen:VRB,22727:kom:NOU-C,M034701:kom:NOU-C}</t>
   </si>
   <si>
+    <t>{M058787:remitteren:VRB}</t>
+  </si>
+  <si>
     <t>{68832:voortvaren:VRB,M082318:voortvaren:VRB}</t>
   </si>
   <si>
@@ -538,6 +553,9 @@
     <t>toezenden; toesturen; zenden; sturen</t>
   </si>
   <si>
+    <t>sturen; zenden</t>
+  </si>
+  <si>
     <t>heengaan; weggaan; terugtrekken; wegtrekken</t>
   </si>
   <si>
@@ -556,328 +574,337 @@
     <t>heenzenden; wegsturen</t>
   </si>
   <si>
+    <t>stroomopwaarts zenden; opsturen; sturen; zenden</t>
+  </si>
+  <si>
+    <t>aankomen; arriveren; bereiken; sturen</t>
+  </si>
+  <si>
+    <t>halen; ophalen</t>
+  </si>
+  <si>
     <t>stroomopwaarts zenden</t>
   </si>
   <si>
-    <t>halen; ophalen</t>
-  </si>
-  <si>
     <t>repatriëren</t>
   </si>
   <si>
-    <t>terughouden; tegenhouden; doen omkeren</t>
-  </si>
-  <si>
     <t>wegvaren; vertrekken; stroomafwaarts varen</t>
   </si>
   <si>
     <t>terugkeren; terugkomen; thuiskomen; terugzenden; terugsturen; terugbetalen</t>
   </si>
   <si>
-    <t>achtervolgen; achternagaan; opvolgen; in de buurt komen; dichtbij komen</t>
+    <t>achtervolgen; achternagaan; in de buurt komen; dichtbij komen</t>
   </si>
   <si>
     <t>overheen varen; over een ander schip heen varen; voorbijvaren; voorbijgaan; inhalen; verder gaan; passeren</t>
   </si>
   <si>
-    <t>besturen; navigeren</t>
+    <t>besturen; navigeren; sturen; zenden</t>
   </si>
   <si>
     <t xml:space="preserve">verschaffen; leveren; afleveren </t>
   </si>
   <si>
-    <t>['Change_position_on_a_scale', 'Disembarking', 'Activity_start', 'Arriving', 'Accomplishment', 'Becoming', 'Getting', 'Impact', 'Board_vehicle', 'Manipulation', 'Coming_to_be', 'Expensiveness', 'Process_start', 'Reveal_secret', 'Grasp']</t>
-  </si>
-  <si>
-    <t>['Sending', 'Causation', 'Placing', 'Being_in_operation', 'Assistance', 'Operating_a_system', 'Using', 'Delivery', 'Influence_of_event_on_cognizer', 'Intentionally_affect']</t>
-  </si>
-  <si>
-    <t>['Sending', 'Being_in_operation', 'Operating_a_system', 'Using', 'Influence_of_event_on_cognizer']</t>
-  </si>
-  <si>
-    <t>['Departing', 'Making_faces', 'Path_shape']</t>
-  </si>
-  <si>
-    <t>['Emptying', 'Bringing', 'Firing', 'Removing', 'Releasing']</t>
-  </si>
-  <si>
-    <t>['Placing', 'Inchoative_attaching', 'Activity_start', 'Arriving', 'Building', 'Setting_fire', 'Process_start', 'Manufacturing', 'Intentionally_create', 'Attaching', 'Cooking_creation', 'Self_motion', 'Cause_change']</t>
-  </si>
-  <si>
-    <t>['Travel', 'Ride_vehicle', 'Operate_vehicle']</t>
-  </si>
-  <si>
-    <t>['Arriving', 'Resurrection']</t>
-  </si>
-  <si>
-    <t>['Change_position_on_a_scale', 'Bringing', 'Accomplishment', 'Commerce_collect', 'Getting', 'Contacting', 'Request', 'Gathering_up', 'Deserving', 'Claim_ownership', 'Grasp']</t>
-  </si>
-  <si>
-    <t>['Evoking', 'Claim_ownership', 'Cutting', 'Grasp', 'Change_position_on_a_scale', 'Body_movement', 'Bringing', 'Withdraw_from_participation', 'Cause_harm', 'Deserving', 'Removing', 'Accomplishment', 'Getting', 'Contacting', 'Undressing', 'Gathering_up', 'Experiencer_obj', 'Commerce_collect', 'Request']</t>
-  </si>
-  <si>
-    <t>['Evoking', 'Body_movement', 'Experiencer_obj', 'Activity_start', 'Commerce_collect', 'Cause_harm', 'Gathering_up', 'Cutting']</t>
-  </si>
-  <si>
-    <t>['Sending', 'Placing', 'Being_in_operation', 'Operating_a_system', 'Using', 'Influence_of_event_on_cognizer']</t>
-  </si>
-  <si>
-    <t>['Path_shape', 'Quitting_a_place', 'Departing', 'Quitting', 'Rotting', 'Death', 'Change_event_time']</t>
+    <t>vergeven; kwijtschelden</t>
+  </si>
+  <si>
+    <t>opvolgen</t>
+  </si>
+  <si>
+    <t>['Coming_to_be', 'Change_position_on_a_scale', 'Becoming', 'Process_start', 'Accomplishment', 'Grasp', 'Board_vehicle', 'Manipulation', 'Disembarking', 'Expensiveness', 'Activity_start', 'Impact', 'Arriving', 'Reveal_secret', 'Getting']</t>
+  </si>
+  <si>
+    <t>['Intentionally_affect', 'Using', 'Operating_a_system', 'Assistance', 'Delivery', 'Placing', 'Sending', 'Causation', 'Being_in_operation', 'Influence_of_event_on_cognizer']</t>
+  </si>
+  <si>
+    <t>['Using', 'Operating_a_system', 'Sending', 'Being_in_operation', 'Influence_of_event_on_cognizer']</t>
+  </si>
+  <si>
+    <t>['Making_faces', 'Departing', 'Path_shape']</t>
+  </si>
+  <si>
+    <t>['Emptying', 'Releasing', 'Firing', 'Bringing', 'Removing']</t>
+  </si>
+  <si>
+    <t>['Intentionally_create', 'Inchoative_attaching', 'Cause_change', 'Process_start', 'Building', 'Placing', 'Activity_start', 'Attaching', 'Manufacturing', 'Arriving', 'Setting_fire', 'Cooking_creation', 'Self_motion']</t>
+  </si>
+  <si>
+    <t>['Ride_vehicle', 'Travel', 'Operate_vehicle']</t>
+  </si>
+  <si>
+    <t>['Resurrection', 'Arriving']</t>
+  </si>
+  <si>
+    <t>['Change_position_on_a_scale', 'Request', 'Claim_ownership', 'Contacting', 'Accomplishment', 'Grasp', 'Deserving', 'Commerce_collect', 'Bringing', 'Gathering_up', 'Getting']</t>
+  </si>
+  <si>
+    <t>['Claim_ownership', 'Experiencer_obj', 'Cutting', 'Withdraw_from_participation', 'Removing', 'Deserving', 'Evoking', 'Change_position_on_a_scale', 'Undressing', 'Commerce_collect', 'Body_movement', 'Request', 'Contacting', 'Accomplishment', 'Grasp', 'Bringing', 'Gathering_up', 'Getting', 'Cause_harm']</t>
+  </si>
+  <si>
+    <t>['Commerce_collect', 'Experiencer_obj', 'Body_movement', 'Activity_start', 'Cutting', 'Gathering_up', 'Evoking', 'Cause_harm']</t>
+  </si>
+  <si>
+    <t>['Using', 'Operating_a_system', 'Placing', 'Sending', 'Being_in_operation', 'Influence_of_event_on_cognizer']</t>
+  </si>
+  <si>
+    <t>['Death', 'Departing', 'Rotting', 'Change_event_time', 'Quitting', 'Path_shape', 'Quitting_a_place']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['Disembarking', 'Topic', 'Arriving', 'Impact', 'Manipulation', 'Reveal_secret']</t>
-  </si>
-  <si>
-    <t>['Change_position_on_a_scale', 'Disembarking', 'Path_shape', 'Topic', 'Arriving', 'Accomplishment', 'Impact', 'Contacting', 'Manipulation', 'Self_motion', 'Reveal_secret', 'Successfully_communicate_message']</t>
-  </si>
-  <si>
-    <t>['Intentional_traversing', 'Path_shape', 'Traversing']</t>
-  </si>
-  <si>
-    <t>['Sending', 'Body_movement', 'Change_position_on_a_scale', 'Change_posture']</t>
-  </si>
-  <si>
-    <t>['Evoking', 'Change_position_on_a_scale', 'Body_movement', 'Bringing', 'Experiencer_obj', 'Accomplishment', 'Commerce_collect', 'Getting', 'Contacting', 'Cause_harm', 'Request', 'Gathering_up', 'Deserving', 'Claim_ownership', 'Cutting', 'Grasp']</t>
-  </si>
-  <si>
-    <t>['Change_position_on_a_scale', 'Awareness', 'Emotion_directed', 'Motion', 'Cause_change_of_position_on_a_scale', 'Experiencer_subj', 'Cause_motion']</t>
-  </si>
-  <si>
-    <t>['Halt', 'Activity_stop', 'Process_stop', 'Thwarting', 'Preventing']</t>
-  </si>
-  <si>
-    <t>['Arriving', 'Resurrection', 'Communication_response']</t>
-  </si>
-  <si>
-    <t>['Relative_time', 'Seeking', 'Successful_action', 'Success_or_failure', 'Cotheme']</t>
-  </si>
-  <si>
-    <t>['Statement', 'Event', 'Arriving', 'Take_place_of', 'Process_continue', 'Speak_on_topic', 'Visiting']</t>
-  </si>
-  <si>
-    <t>['Supply', 'Cause_to_make_progress', 'Delivery', 'Causation', 'Intentionally_affect']</t>
-  </si>
-  <si>
-    <t>['Arriving', 'Cause_to_make_progress', 'Undergo_change', 'Becoming', 'Impact', 'Origin', 'Motion_directional', 'Expensiveness', 'Change_position_on_a_scale', 'Perception_experience', 'Growing_food', 'Reveal_secret', 'Motion', 'Feeling', 'Cause_expansion', 'Expansion', 'Accomplishment', 'Getting', 'Contacting', 'Progress', 'Coming_to_be', 'Board_vehicle', 'Locative_relation', 'Cause_change']</t>
-  </si>
-  <si>
-    <t>['Sending', 'Being_in_operation', 'Giving', 'Intentionally_act', 'Influence_of_event_on_cognizer', 'Operating_a_system', 'Using', 'Intentionally_create', 'Delivery', 'Causation', 'Cause_motion', 'Leadership']</t>
-  </si>
-  <si>
-    <t>['Sending', 'Being_in_operation', 'Operating_a_system', 'Using', 'Influence_of_event_on_cognizer', 'Cause_motion', 'Leadership']</t>
-  </si>
-  <si>
-    <t>['Change_position_on_a_scale', 'Cause_motion', 'Undergo_change', 'Becoming', 'Exchange_currency', 'Process_continue', 'Cause_change_of_position_on_a_scale', 'Travel', 'Change_tool', 'Cause_change', 'Motion']</t>
-  </si>
-  <si>
-    <t>['Emptying', 'Sending', 'Bringing', 'Emitting', 'Use_firearm', 'Withdraw_from_participation', 'Undressing', 'Surrendering_possession', 'Removing', 'Releasing', 'Motion']</t>
-  </si>
-  <si>
-    <t>['Work', 'Working_on', 'Aiming', 'Placing', 'Activity_start', 'Becoming', 'Getting', 'Being_employed', 'Setting_fire', 'Purpose', 'Education_teaching', 'Attaching', 'Process_start']</t>
-  </si>
-  <si>
-    <t>['Ride_vehicle', 'Undergo_change', 'Operate_vehicle', 'Self_motion', 'Cause_change']</t>
-  </si>
-  <si>
-    <t>['Arriving', 'Resurrection', 'Frequency']</t>
-  </si>
-  <si>
-    <t>['Bringing', 'Accomplishment', 'Commerce_collect', 'Getting', 'Motion', 'Grasp', 'Cause_motion']</t>
-  </si>
-  <si>
-    <t>['Undergo_change', 'Grasp', 'Bringing', 'Remembering_to_do', 'Withdraw_from_participation', 'Removing', 'Remembering_information', 'Change_tool', 'Cause_motion', 'Remembering_experience', 'Motion', 'Exchange_currency', 'Accomplishment', 'Getting', 'Undressing', 'Memory', 'Commerce_collect', 'Cause_change']</t>
-  </si>
-  <si>
-    <t>['Sending', 'Being_in_operation', 'Operating_a_system', 'Using', 'Leadership', 'Influence_of_event_on_cognizer', 'Cause_motion', 'Expressing_publicly']</t>
-  </si>
-  <si>
-    <t>['Cause_motion', 'Memory', 'Remembering_to_do', 'Activity_start', 'Undergo_change', 'Exchange_currency', 'Getting', 'Becoming', 'Setting_fire', 'Process_start', 'Remembering_information', 'Change_tool', 'Cause_change', 'Remembering_experience']</t>
-  </si>
-  <si>
-    <t>['Activity_stop', 'Becoming', 'Death', 'Process_continue', 'Create_physical_artwork', 'Change_position_on_a_scale', 'Earnings_and_losses', 'Quitting', 'Motion', 'Cause_motion', 'Communication_noise', 'Ingestion', 'Departing', 'Cause_change_of_position_on_a_scale', 'Fluidic_motion', 'Self_motion', 'Travel', 'Quitting_a_place', 'Manipulation', 'Rotting']</t>
-  </si>
-  <si>
-    <t>['Statement', 'Topic', 'Undergo_change', 'Becoming', 'Impact', 'Contingency', 'Process_continue', 'Change_position_on_a_scale', 'Change_tool', 'Cause_motion', 'Motion', 'Cause_emotion', 'Reliance', 'Emotion_directed', 'Activity_start', 'Exchange_currency', 'Getting', 'Cause_change_of_position_on_a_scale', 'Travel', 'Assistance', 'Manipulation', 'Intentionally_create', 'Quantity', 'Cause_change']</t>
-  </si>
-  <si>
-    <t>['Statement', 'Arriving', 'Topic', 'Undergo_change', 'Becoming', 'Impact', 'Contingency', 'Process_continue', 'Change_position_on_a_scale', 'Change_tool', 'Cause_motion', 'Motion', 'Cause_emotion', 'Reliance', 'Emotion_directed', 'Activity_start', 'Exchange_currency', 'Accomplishment', 'Getting', 'Cause_change_of_position_on_a_scale', 'Travel', 'Assistance', 'Manipulation', 'Intentionally_create', 'Quantity', 'Cause_change']</t>
-  </si>
-  <si>
-    <t>['Undergo_change', 'Cause_change']</t>
-  </si>
-  <si>
-    <t>['Sending', 'Withdraw_from_participation', 'Undressing', 'Removing']</t>
-  </si>
-  <si>
-    <t>['Cause_motion', 'Grasp', 'Memory', 'Bringing', 'Remembering_to_do', 'Undergo_change', 'Commerce_collect', 'Exchange_currency', 'Accomplishment', 'Remembering_experience', 'Getting', 'Remembering_information', 'Change_tool', 'Cause_change', 'Motion']</t>
-  </si>
-  <si>
-    <t>['Bringing', 'Arriving', 'Resurrection', 'Removing', 'Taking']</t>
-  </si>
-  <si>
-    <t>['Awareness', 'Change_position_on_a_scale', 'Undergo_change', 'Becoming', 'Motion', 'Intentionally_create', 'Process_continue', 'Cause_change_of_position_on_a_scale', 'Travel', 'Cause_change', 'Cause_motion']</t>
-  </si>
-  <si>
-    <t>['Defend', 'Taking_sides', 'Activity_stop', 'Cause_to_end', 'Activity_finish', 'Firing', 'Thwarting', 'Justifying', 'Process_end', 'Killing', 'Preventing']</t>
-  </si>
-  <si>
-    <t>['Discussion', 'Cause_change', 'Bringing', 'Sending', 'Commerce_pay', 'Arriving', 'Undergo_change', 'Contacting', 'Resurrection', 'Removing', 'Recovery', 'Taking', 'Frequency']</t>
-  </si>
-  <si>
-    <t>['Relative_time', 'Take_place_of', 'Compliance', 'Seeking', 'Replacing', 'Cotheme']</t>
-  </si>
-  <si>
-    <t>['Change_position_on_a_scale', 'Cause_motion', 'Judgment_communication', 'Ride_vehicle', 'Becoming', 'Firing', 'Self_motion', 'Process_continue', 'Traversing', 'Desiring', 'Travel', 'Cause_change_of_position_on_a_scale', 'Process_end', 'Operate_vehicle', 'Motion']</t>
-  </si>
-  <si>
-    <t>['Ride_vehicle', 'Bringing', 'Self_motion', 'Operate_vehicle', 'Cause_motion', 'Leadership']</t>
-  </si>
-  <si>
-    <t>['Giving', 'Expansion', 'Cause_expansion', 'Cause_to_make_progress', 'Growing_food', 'Delivery']</t>
-  </si>
-  <si>
-    <t>{'Change_position_on_a_scale', 'Arriving', 'Accomplishment', 'Becoming', 'Getting', 'Impact', 'Board_vehicle', 'Coming_to_be', 'Expensiveness', 'Reveal_secret'}</t>
-  </si>
-  <si>
-    <t>{'Sending', 'Causation', 'Being_in_operation', 'Operating_a_system', 'Using', 'Delivery', 'Influence_of_event_on_cognizer'}</t>
-  </si>
-  <si>
-    <t>{'Sending', 'Being_in_operation', 'Operating_a_system', 'Using', 'Influence_of_event_on_cognizer'}</t>
+    <t>['Topic', 'Manipulation', 'Disembarking', 'Impact', 'Arriving', 'Reveal_secret']</t>
+  </si>
+  <si>
+    <t>['Topic', 'Change_position_on_a_scale', 'Contacting', 'Manipulation', 'Accomplishment', 'Disembarking', 'Impact', 'Arriving', 'Path_shape', 'Reveal_secret', 'Successfully_communicate_message', 'Self_motion']</t>
+  </si>
+  <si>
+    <t>['Intentional_traversing', 'Traversing', 'Path_shape']</t>
+  </si>
+  <si>
+    <t>['Change_position_on_a_scale', 'Sending', 'Body_movement', 'Change_posture']</t>
+  </si>
+  <si>
+    <t>['Topic', 'Change_position_on_a_scale', 'Contacting', 'Manipulation', 'Accomplishment', 'Influence_of_event_on_cognizer', 'Using', 'Operating_a_system', 'Disembarking', 'Impact', 'Arriving', 'Path_shape', 'Reveal_secret', 'Being_in_operation', 'Successfully_communicate_message', 'Self_motion']</t>
+  </si>
+  <si>
+    <t>['Change_position_on_a_scale', 'Request', 'Claim_ownership', 'Contacting', 'Accomplishment', 'Grasp', 'Deserving', 'Commerce_collect', 'Bringing', 'Experiencer_obj', 'Body_movement', 'Evoking', 'Cutting', 'Gathering_up', 'Getting', 'Cause_harm']</t>
+  </si>
+  <si>
+    <t>['Cause_motion', 'Change_position_on_a_scale', 'Awareness', 'Motion', 'Cause_change_of_position_on_a_scale', 'Experiencer_subj', 'Emotion_directed']</t>
+  </si>
+  <si>
+    <t>['Communication_response', 'Resurrection', 'Arriving']</t>
+  </si>
+  <si>
+    <t>['Cotheme', 'Seeking']</t>
+  </si>
+  <si>
+    <t>['Take_place_of', 'Process_continue', 'Event', 'Arriving', 'Speak_on_topic', 'Visiting', 'Statement']</t>
+  </si>
+  <si>
+    <t>['Using', 'Operating_a_system', 'Sending', 'Operate_vehicle', 'Ride_vehicle', 'Being_in_operation', 'Travel', 'Influence_of_event_on_cognizer']</t>
+  </si>
+  <si>
+    <t>['Intentionally_affect', 'Supply', 'Delivery', 'Cause_to_make_progress', 'Causation']</t>
+  </si>
+  <si>
+    <t>['Growing_food', 'Locative_relation', 'Impact', 'Origin', 'Cause_expansion', 'Motion_directional', 'Becoming', 'Progress', 'Board_vehicle', 'Coming_to_be', 'Change_position_on_a_scale', 'Cause_change', 'Perception_experience', 'Motion', 'Expensiveness', 'Cause_to_make_progress', 'Undergo_change', 'Arriving', 'Reveal_secret', 'Contacting', 'Accomplishment', 'Feeling', 'Expansion', 'Getting']</t>
+  </si>
+  <si>
+    <t>['Intentionally_create', 'Cause_motion', 'Leadership', 'Giving', 'Using', 'Operating_a_system', 'Delivery', 'Sending', 'Causation', 'Intentionally_act', 'Being_in_operation', 'Influence_of_event_on_cognizer']</t>
+  </si>
+  <si>
+    <t>['Cause_motion', 'Leadership', 'Using', 'Operating_a_system', 'Sending', 'Being_in_operation', 'Influence_of_event_on_cognizer']</t>
+  </si>
+  <si>
+    <t>['Change_position_on_a_scale', 'Cause_motion', 'Motion', 'Becoming', 'Cause_change', 'Exchange_currency', 'Change_tool', 'Process_continue', 'Cause_change_of_position_on_a_scale', 'Undergo_change', 'Travel']</t>
+  </si>
+  <si>
+    <t>['Emptying', 'Emitting', 'Motion', 'Undressing', 'Releasing', 'Use_firearm', 'Bringing', 'Sending', 'Surrendering_possession', 'Withdraw_from_participation', 'Removing']</t>
+  </si>
+  <si>
+    <t>['Getting', 'Education_teaching', 'Becoming', 'Process_start', 'Work', 'Being_employed', 'Activity_start', 'Placing', 'Aiming', 'Attaching', 'Working_on', 'Purpose', 'Setting_fire']</t>
+  </si>
+  <si>
+    <t>['Cause_change', 'Undergo_change', 'Operate_vehicle', 'Ride_vehicle', 'Self_motion']</t>
+  </si>
+  <si>
+    <t>['Frequency', 'Resurrection', 'Arriving']</t>
+  </si>
+  <si>
+    <t>['Cause_motion', 'Motion', 'Accomplishment', 'Grasp', 'Commerce_collect', 'Bringing', 'Getting']</t>
+  </si>
+  <si>
+    <t>['Remembering_information', 'Withdraw_from_participation', 'Removing', 'Cause_motion', 'Change_tool', 'Remembering_to_do', 'Cause_change', 'Motion', 'Undressing', 'Commerce_collect', 'Undergo_change', 'Remembering_experience', 'Exchange_currency', 'Accomplishment', 'Grasp', 'Memory', 'Bringing', 'Getting']</t>
+  </si>
+  <si>
+    <t>['Cause_motion', 'Leadership', 'Using', 'Operating_a_system', 'Sending', 'Expressing_publicly', 'Being_in_operation', 'Influence_of_event_on_cognizer']</t>
+  </si>
+  <si>
+    <t>['Cause_motion', 'Remembering_information', 'Exchange_currency', 'Cause_change', 'Becoming', 'Process_start', 'Change_tool', 'Memory', 'Remembering_to_do', 'Activity_start', 'Undergo_change', 'Remembering_experience', 'Getting', 'Setting_fire']</t>
+  </si>
+  <si>
+    <t>['Departing', 'Communication_noise', 'Ingestion', 'Earnings_and_losses', 'Quitting', 'Cause_motion', 'Activity_stop', 'Becoming', 'Change_position_on_a_scale', 'Motion', 'Rotting', 'Cause_change_of_position_on_a_scale', 'Fluidic_motion', 'Travel', 'Self_motion', 'Death', 'Create_physical_artwork', 'Manipulation', 'Process_continue', 'Quitting_a_place']</t>
+  </si>
+  <si>
+    <t>['Topic', 'Assistance', 'Activity_start', 'Reliance', 'Impact', 'Emotion_directed', 'Intentionally_create', 'Cause_motion', 'Becoming', 'Change_tool', 'Statement', 'Change_position_on_a_scale', 'Quantity', 'Motion', 'Cause_change', 'Contingency', 'Cause_change_of_position_on_a_scale', 'Undergo_change', 'Travel', 'Exchange_currency', 'Manipulation', 'Process_continue', 'Getting', 'Cause_emotion']</t>
+  </si>
+  <si>
+    <t>['Topic', 'Assistance', 'Activity_start', 'Reliance', 'Impact', 'Emotion_directed', 'Intentionally_create', 'Cause_motion', 'Becoming', 'Change_tool', 'Statement', 'Change_position_on_a_scale', 'Quantity', 'Cause_change', 'Motion', 'Contingency', 'Cause_change_of_position_on_a_scale', 'Undergo_change', 'Arriving', 'Travel', 'Exchange_currency', 'Accomplishment', 'Manipulation', 'Process_continue', 'Getting', 'Cause_emotion']</t>
+  </si>
+  <si>
+    <t>['Cause_change', 'Undergo_change']</t>
+  </si>
+  <si>
+    <t>['Undressing', 'Sending', 'Withdraw_from_participation', 'Removing']</t>
+  </si>
+  <si>
+    <t>['Topic', 'Assistance', 'Activity_start', 'Sending', 'Reliance', 'Impact', 'Being_in_operation', 'Influence_of_event_on_cognizer', 'Intentionally_create', 'Emotion_directed', 'Cause_motion', 'Becoming', 'Change_tool', 'Statement', 'Change_position_on_a_scale', 'Leadership', 'Quantity', 'Cause_change', 'Motion', 'Using', 'Contingency', 'Cause_change_of_position_on_a_scale', 'Undergo_change', 'Arriving', 'Travel', 'Exchange_currency', 'Accomplishment', 'Manipulation', 'Operating_a_system', 'Process_continue', 'Getting', 'Cause_emotion']</t>
+  </si>
+  <si>
+    <t>['Cause_motion', 'Remembering_information', 'Cause_change', 'Motion', 'Exchange_currency', 'Accomplishment', 'Change_tool', 'Memory', 'Remembering_to_do', 'Grasp', 'Commerce_collect', 'Bringing', 'Undergo_change', 'Remembering_experience', 'Getting']</t>
+  </si>
+  <si>
+    <t>['Taking', 'Resurrection', 'Bringing', 'Arriving', 'Removing']</t>
+  </si>
+  <si>
+    <t>['Intentionally_create', 'Cause_motion', 'Change_position_on_a_scale', 'Awareness', 'Cause_change', 'Motion', 'Becoming', 'Process_continue', 'Cause_change_of_position_on_a_scale', 'Undergo_change', 'Travel']</t>
+  </si>
+  <si>
+    <t>['Taking', 'Resurrection', 'Cause_change', 'Contacting', 'Recovery', 'Bringing', 'Sending', 'Frequency', 'Discussion', 'Undergo_change', 'Arriving', 'Commerce_pay', 'Removing']</t>
+  </si>
+  <si>
+    <t>['Change_position_on_a_scale', 'Process_end', 'Cause_motion', 'Motion', 'Becoming', 'Firing', 'Process_continue', 'Cause_change_of_position_on_a_scale', 'Judgment_communication', 'Ride_vehicle', 'Desiring', 'Traversing', 'Travel', 'Operate_vehicle', 'Self_motion']</t>
+  </si>
+  <si>
+    <t>['Leadership', 'Cause_motion', 'Using', 'Operating_a_system', 'Self_motion', 'Bringing', 'Sending', 'Operate_vehicle', 'Ride_vehicle', 'Being_in_operation', 'Influence_of_event_on_cognizer']</t>
+  </si>
+  <si>
+    <t>['Growing_food', 'Cause_expansion', 'Giving', 'Expansion', 'Delivery', 'Cause_to_make_progress']</t>
+  </si>
+  <si>
+    <t>{'Coming_to_be', 'Change_position_on_a_scale', 'Becoming', 'Accomplishment', 'Board_vehicle', 'Expensiveness', 'Impact', 'Arriving', 'Reveal_secret', 'Getting'}</t>
+  </si>
+  <si>
+    <t>{'Using', 'Operating_a_system', 'Delivery', 'Sending', 'Causation', 'Being_in_operation', 'Influence_of_event_on_cognizer'}</t>
+  </si>
+  <si>
+    <t>{'Using', 'Operating_a_system', 'Sending', 'Being_in_operation', 'Influence_of_event_on_cognizer'}</t>
   </si>
   <si>
     <t>set()</t>
   </si>
   <si>
-    <t>{'Emptying', 'Bringing', 'Releasing', 'Removing'}</t>
-  </si>
-  <si>
-    <t>{'Placing', 'Activity_start', 'Setting_fire', 'Attaching', 'Process_start'}</t>
+    <t>{'Emptying', 'Bringing', 'Removing', 'Releasing'}</t>
+  </si>
+  <si>
+    <t>{'Process_start', 'Activity_start', 'Placing', 'Attaching', 'Setting_fire'}</t>
   </si>
   <si>
     <t>{'Ride_vehicle', 'Operate_vehicle'}</t>
   </si>
   <si>
-    <t>{'Arriving', 'Resurrection'}</t>
-  </si>
-  <si>
-    <t>{'Bringing', 'Accomplishment', 'Commerce_collect', 'Getting', 'Grasp'}</t>
-  </si>
-  <si>
-    <t>{'Bringing', 'Withdraw_from_participation', 'Accomplishment', 'Commerce_collect', 'Getting', 'Undressing', 'Removing', 'Grasp'}</t>
+    <t>{'Resurrection', 'Arriving'}</t>
+  </si>
+  <si>
+    <t>{'Accomplishment', 'Grasp', 'Commerce_collect', 'Bringing', 'Getting'}</t>
+  </si>
+  <si>
+    <t>{'Undressing', 'Accomplishment', 'Grasp', 'Commerce_collect', 'Bringing', 'Getting', 'Withdraw_from_participation', 'Removing'}</t>
   </si>
   <si>
     <t>{'Activity_start'}</t>
   </si>
   <si>
-    <t>{'Quitting_a_place', 'Departing', 'Quitting', 'Rotting', 'Death'}</t>
-  </si>
-  <si>
-    <t>{'Topic', 'Manipulation', 'Impact'}</t>
-  </si>
-  <si>
-    <t>{'Change_position_on_a_scale', 'Arriving', 'Topic', 'Accomplishment', 'Impact', 'Manipulation'}</t>
+    <t>{'Death', 'Departing', 'Rotting', 'Quitting', 'Quitting_a_place'}</t>
+  </si>
+  <si>
+    <t>{'Manipulation', 'Topic', 'Impact'}</t>
+  </si>
+  <si>
+    <t>{'Change_position_on_a_scale', 'Topic', 'Accomplishment', 'Manipulation', 'Impact', 'Arriving'}</t>
   </si>
   <si>
     <t>{'Sending'}</t>
   </si>
   <si>
-    <t>{'Awareness', 'Change_position_on_a_scale', 'Motion', 'Cause_change_of_position_on_a_scale', 'Cause_motion'}</t>
-  </si>
-  <si>
-    <t>{'Thwarting', 'Activity_stop', 'Preventing'}</t>
-  </si>
-  <si>
-    <t>{'Relative_time', 'Cotheme', 'Seeking'}</t>
+    <t>{'Change_position_on_a_scale', 'Topic', 'Accomplishment', 'Manipulation', 'Using', 'Operating_a_system', 'Impact', 'Arriving', 'Being_in_operation', 'Influence_of_event_on_cognizer'}</t>
+  </si>
+  <si>
+    <t>{'Change_position_on_a_scale', 'Cause_motion', 'Awareness', 'Motion', 'Cause_change_of_position_on_a_scale'}</t>
+  </si>
+  <si>
+    <t>{'Cotheme', 'Seeking'}</t>
   </si>
   <si>
     <t>{'Process_continue'}</t>
   </si>
   <si>
+    <t>{'Using', 'Operating_a_system', 'Sending', 'Operate_vehicle', 'Ride_vehicle', 'Being_in_operation', 'Influence_of_event_on_cognizer'}</t>
+  </si>
+  <si>
     <t>{'Delivery', 'Cause_to_make_progress'}</t>
   </si>
   <si>
-    <t>{'Arriving', 'Cause_to_make_progress', 'Becoming', 'Undergo_change', 'Impact', 'Origin', 'Motion_directional', 'Expensiveness', 'Process_start', 'Grasp', 'Change_position_on_a_scale', 'Perception_experience', 'Growing_food', 'Reveal_secret', 'Motion', 'Feeling', 'Activity_start', 'Cause_expansion', 'Expansion', 'Accomplishment', 'Getting', 'Contacting', 'Progress', 'Coming_to_be', 'Disembarking', 'Board_vehicle', 'Manipulation', 'Locative_relation', 'Cause_change'}</t>
-  </si>
-  <si>
-    <t>{'Sending', 'Placing', 'Being_in_operation', 'Assistance', 'Giving', 'Influence_of_event_on_cognizer', 'Intentionally_act', 'Operating_a_system', 'Using', 'Delivery', 'Intentionally_create', 'Causation', 'Intentionally_affect', 'Cause_motion', 'Leadership'}</t>
-  </si>
-  <si>
-    <t>{'Cause_motion', 'Sending', 'Using', 'Being_in_operation', 'Influence_of_event_on_cognizer', 'Operating_a_system', 'Leadership'}</t>
-  </si>
-  <si>
-    <t>{'Change_position_on_a_scale', 'Path_shape', 'Undergo_change', 'Becoming', 'Exchange_currency', 'Motion', 'Departing', 'Making_faces', 'Process_continue', 'Cause_change_of_position_on_a_scale', 'Travel', 'Change_tool', 'Cause_change', 'Cause_motion'}</t>
-  </si>
-  <si>
-    <t>{'Sending', 'Use_firearm', 'Undressing', 'Releasing', 'Emptying', 'Bringing', 'Emitting', 'Withdraw_from_participation', 'Firing', 'Surrendering_possession', 'Removing', 'Motion'}</t>
-  </si>
-  <si>
-    <t>{'Aiming', 'Working_on', 'Inchoative_attaching', 'Arriving', 'Becoming', 'Process_start', 'Work', 'Placing', 'Building', 'Setting_fire', 'Manufacturing', 'Activity_start', 'Getting', 'Being_employed', 'Attaching', 'Cooking_creation', 'Self_motion', 'Intentionally_create', 'Purpose', 'Education_teaching', 'Cause_change'}</t>
-  </si>
-  <si>
-    <t>{'Ride_vehicle', 'Cause_change', 'Undergo_change', 'Travel', 'Self_motion', 'Operate_vehicle'}</t>
-  </si>
-  <si>
-    <t>{'Arriving', 'Resurrection', 'Frequency'}</t>
-  </si>
-  <si>
-    <t>{'Cause_motion', 'Change_position_on_a_scale', 'Bringing', 'Accomplishment', 'Commerce_collect', 'Getting', 'Contacting', 'Request', 'Gathering_up', 'Deserving', 'Claim_ownership', 'Grasp', 'Motion'}</t>
-  </si>
-  <si>
-    <t>{'Evoking', 'Accomplishment', 'Undergo_change', 'Getting', 'Contacting', 'Remembering_experience', 'Undressing', 'Exchange_currency', 'Gathering_up', 'Claim_ownership', 'Cutting', 'Grasp', 'Change_position_on_a_scale', 'Body_movement', 'Bringing', 'Memory', 'Experiencer_obj', 'Remembering_to_do', 'Withdraw_from_participation', 'Commerce_collect', 'Cause_harm', 'Motion', 'Request', 'Deserving', 'Removing', 'Remembering_information', 'Change_tool', 'Cause_change', 'Cause_motion'}</t>
-  </si>
-  <si>
-    <t>{'Cause_motion', 'Sending', 'Expressing_publicly', 'Using', 'Being_in_operation', 'Influence_of_event_on_cognizer', 'Operating_a_system', 'Leadership'}</t>
-  </si>
-  <si>
-    <t>{'Evoking', 'Undergo_change', 'Becoming', 'Process_start', 'Cutting', 'Body_movement', 'Remembering_to_do', 'Cause_harm', 'Setting_fire', 'Remembering_information', 'Change_tool', 'Cause_motion', 'Remembering_experience', 'Activity_start', 'Exchange_currency', 'Getting', 'Gathering_up', 'Memory', 'Experiencer_obj', 'Commerce_collect', 'Cause_change'}</t>
-  </si>
-  <si>
-    <t>{'Cause_motion', 'Sending', 'Using', 'Placing', 'Being_in_operation', 'Influence_of_event_on_cognizer', 'Operating_a_system', 'Leadership'}</t>
-  </si>
-  <si>
-    <t>{'Cause_motion', 'Communication_noise', 'Activity_stop', 'Ingestion', 'Becoming', 'Departing', 'Death', 'Process_continue', 'Cause_change_of_position_on_a_scale', 'Fluidic_motion', 'Self_motion', 'Travel', 'Change_event_time', 'Create_physical_artwork', 'Change_position_on_a_scale', 'Quitting_a_place', 'Path_shape', 'Earnings_and_losses', 'Quitting', 'Rotting', 'Manipulation', 'Motion'}</t>
-  </si>
-  <si>
-    <t>{'Cause_emotion', 'Reliance', 'Emotion_directed', 'Statement', 'Activity_start', 'Topic', 'Arriving', 'Undergo_change', 'Becoming', 'Exchange_currency', 'Impact', 'Getting', 'Contingency', 'Process_continue', 'Cause_change_of_position_on_a_scale', 'Travel', 'Change_position_on_a_scale', 'Disembarking', 'Assistance', 'Motion', 'Manipulation', 'Intentionally_create', 'Reveal_secret', 'Change_tool', 'Quantity', 'Cause_change', 'Cause_motion'}</t>
-  </si>
-  <si>
-    <t>{'Statement', 'Topic', 'Arriving', 'Undergo_change', 'Becoming', 'Impact', 'Contingency', 'Process_continue', 'Change_position_on_a_scale', 'Path_shape', 'Reveal_secret', 'Successfully_communicate_message', 'Change_tool', 'Cause_motion', 'Motion', 'Cause_emotion', 'Reliance', 'Emotion_directed', 'Activity_start', 'Accomplishment', 'Exchange_currency', 'Getting', 'Contacting', 'Cause_change_of_position_on_a_scale', 'Self_motion', 'Travel', 'Disembarking', 'Assistance', 'Manipulation', 'Intentionally_create', 'Quantity', 'Cause_change'}</t>
-  </si>
-  <si>
-    <t>{'Path_shape', 'Undergo_change', 'Intentional_traversing', 'Traversing', 'Cause_change'}</t>
-  </si>
-  <si>
-    <t>{'Sending', 'Body_movement', 'Change_posture', 'Change_position_on_a_scale', 'Withdraw_from_participation', 'Undressing', 'Removing'}</t>
-  </si>
-  <si>
-    <t>{'Evoking', 'Accomplishment', 'Undergo_change', 'Getting', 'Contacting', 'Exchange_currency', 'Remembering_experience', 'Gathering_up', 'Claim_ownership', 'Cutting', 'Grasp', 'Change_position_on_a_scale', 'Body_movement', 'Bringing', 'Memory', 'Experiencer_obj', 'Remembering_to_do', 'Commerce_collect', 'Cause_harm', 'Motion', 'Request', 'Deserving', 'Remembering_information', 'Change_tool', 'Cause_change', 'Cause_motion'}</t>
-  </si>
-  <si>
-    <t>{'Bringing', 'Arriving', 'Resurrection', 'Removing', 'Taking'}</t>
-  </si>
-  <si>
-    <t>{'Cause_motion', 'Awareness', 'Emotion_directed', 'Undergo_change', 'Becoming', 'Process_continue', 'Cause_change_of_position_on_a_scale', 'Experiencer_subj', 'Travel', 'Change_position_on_a_scale', 'Intentionally_create', 'Cause_change', 'Motion'}</t>
-  </si>
-  <si>
-    <t>{'Taking_sides', 'Activity_stop', 'Cause_to_end', 'Thwarting', 'Process_end', 'Halt', 'Defend', 'Activity_finish', 'Firing', 'Process_stop', 'Justifying', 'Killing', 'Preventing'}</t>
-  </si>
-  <si>
-    <t>{'Discussion', 'Sending', 'Bringing', 'Commerce_pay', 'Arriving', 'Taking', 'Communication_response', 'Undergo_change', 'Contacting', 'Resurrection', 'Removing', 'Recovery', 'Cause_change', 'Frequency'}</t>
-  </si>
-  <si>
-    <t>{'Take_place_of', 'Compliance', 'Relative_time', 'Seeking', 'Replacing', 'Successful_action', 'Success_or_failure', 'Cotheme'}</t>
-  </si>
-  <si>
-    <t>{'Judgment_communication', 'Event', 'Statement', 'Arriving', 'Becoming', 'Take_place_of', 'Process_continue', 'Traversing', 'Desiring', 'Self_motion', 'Travel', 'Cause_change_of_position_on_a_scale', 'Process_end', 'Speak_on_topic', 'Visiting', 'Change_position_on_a_scale', 'Ride_vehicle', 'Firing', 'Motion', 'Operate_vehicle', 'Cause_motion'}</t>
-  </si>
-  <si>
-    <t>{'Ride_vehicle', 'Bringing', 'Travel', 'Self_motion', 'Operate_vehicle', 'Cause_motion', 'Leadership'}</t>
-  </si>
-  <si>
-    <t>{'Supply', 'Giving', 'Expansion', 'Cause_expansion', 'Cause_to_make_progress', 'Growing_food', 'Delivery', 'Causation', 'Intentionally_affect'}</t>
+    <t>{'Growing_food', 'Activity_start', 'Locative_relation', 'Impact', 'Origin', 'Cause_expansion', 'Motion_directional', 'Becoming', 'Progress', 'Board_vehicle', 'Disembarking', 'Change_position_on_a_scale', 'Coming_to_be', 'Cause_change', 'Perception_experience', 'Process_start', 'Motion', 'Expensiveness', 'Cause_to_make_progress', 'Undergo_change', 'Arriving', 'Reveal_secret', 'Contacting', 'Accomplishment', 'Grasp', 'Manipulation', 'Feeling', 'Expansion', 'Getting'}</t>
+  </si>
+  <si>
+    <t>{'Intentionally_create', 'Cause_motion', 'Leadership', 'Intentionally_affect', 'Giving', 'Using', 'Operating_a_system', 'Assistance', 'Delivery', 'Placing', 'Sending', 'Causation', 'Intentionally_act', 'Being_in_operation', 'Influence_of_event_on_cognizer'}</t>
+  </si>
+  <si>
+    <t>{'Sending', 'Cause_motion', 'Leadership', 'Using', 'Being_in_operation', 'Operating_a_system', 'Influence_of_event_on_cognizer'}</t>
+  </si>
+  <si>
+    <t>{'Cause_motion', 'Change_position_on_a_scale', 'Departing', 'Motion', 'Becoming', 'Cause_change', 'Exchange_currency', 'Change_tool', 'Process_continue', 'Cause_change_of_position_on_a_scale', 'Making_faces', 'Undergo_change', 'Path_shape', 'Travel'}</t>
+  </si>
+  <si>
+    <t>{'Motion', 'Undressing', 'Sending', 'Withdraw_from_participation', 'Removing', 'Emptying', 'Emitting', 'Releasing', 'Firing', 'Bringing', 'Surrendering_possession', 'Use_firearm'}</t>
+  </si>
+  <si>
+    <t>{'Inchoative_attaching', 'Being_employed', 'Activity_start', 'Attaching', 'Working_on', 'Intentionally_create', 'Becoming', 'Work', 'Placing', 'Aiming', 'Cooking_creation', 'Cause_change', 'Process_start', 'Building', 'Arriving', 'Self_motion', 'Education_teaching', 'Manufacturing', 'Getting', 'Purpose', 'Setting_fire'}</t>
+  </si>
+  <si>
+    <t>{'Cause_change', 'Undergo_change', 'Operate_vehicle', 'Ride_vehicle', 'Travel', 'Self_motion'}</t>
+  </si>
+  <si>
+    <t>{'Frequency', 'Resurrection', 'Arriving'}</t>
+  </si>
+  <si>
+    <t>{'Change_position_on_a_scale', 'Request', 'Claim_ownership', 'Cause_motion', 'Motion', 'Contacting', 'Accomplishment', 'Grasp', 'Deserving', 'Commerce_collect', 'Bringing', 'Gathering_up', 'Getting'}</t>
+  </si>
+  <si>
+    <t>{'Claim_ownership', 'Change_position_on_a_scale', 'Remembering_information', 'Cause_change', 'Undressing', 'Motion', 'Commerce_collect', 'Experiencer_obj', 'Body_movement', 'Cutting', 'Undergo_change', 'Remembering_experience', 'Withdraw_from_participation', 'Removing', 'Getting', 'Request', 'Cause_motion', 'Exchange_currency', 'Contacting', 'Accomplishment', 'Grasp', 'Change_tool', 'Deserving', 'Remembering_to_do', 'Memory', 'Bringing', 'Gathering_up', 'Evoking', 'Cause_harm'}</t>
+  </si>
+  <si>
+    <t>{'Sending', 'Cause_motion', 'Leadership', 'Expressing_publicly', 'Using', 'Being_in_operation', 'Operating_a_system', 'Influence_of_event_on_cognizer'}</t>
+  </si>
+  <si>
+    <t>{'Remembering_information', 'Experiencer_obj', 'Activity_start', 'Cutting', 'Cause_motion', 'Becoming', 'Change_tool', 'Remembering_to_do', 'Evoking', 'Cause_change', 'Process_start', 'Commerce_collect', 'Body_movement', 'Undergo_change', 'Remembering_experience', 'Exchange_currency', 'Memory', 'Gathering_up', 'Getting', 'Cause_harm', 'Setting_fire'}</t>
+  </si>
+  <si>
+    <t>{'Placing', 'Sending', 'Cause_motion', 'Leadership', 'Using', 'Being_in_operation', 'Operating_a_system', 'Influence_of_event_on_cognizer'}</t>
+  </si>
+  <si>
+    <t>{'Change_position_on_a_scale', 'Departing', 'Rotting', 'Communication_noise', 'Motion', 'Ingestion', 'Earnings_and_losses', 'Cause_change_of_position_on_a_scale', 'Quitting', 'Fluidic_motion', 'Travel', 'Self_motion', 'Cause_motion', 'Death', 'Activity_stop', 'Becoming', 'Create_physical_artwork', 'Change_event_time', 'Manipulation', 'Process_continue', 'Path_shape', 'Quitting_a_place'}</t>
+  </si>
+  <si>
+    <t>{'Topic', 'Change_position_on_a_scale', 'Quantity', 'Motion', 'Cause_change', 'Contingency', 'Assistance', 'Activity_start', 'Cause_change_of_position_on_a_scale', 'Reliance', 'Impact', 'Arriving', 'Undergo_change', 'Reveal_secret', 'Cause_emotion', 'Travel', 'Emotion_directed', 'Intentionally_create', 'Cause_motion', 'Exchange_currency', 'Becoming', 'Manipulation', 'Change_tool', 'Disembarking', 'Process_continue', 'Getting', 'Statement'}</t>
+  </si>
+  <si>
+    <t>{'Topic', 'Assistance', 'Activity_start', 'Reliance', 'Impact', 'Cause_emotion', 'Emotion_directed', 'Intentionally_create', 'Cause_motion', 'Becoming', 'Change_tool', 'Disembarking', 'Path_shape', 'Change_position_on_a_scale', 'Quantity', 'Cause_change', 'Motion', 'Contingency', 'Cause_change_of_position_on_a_scale', 'Undergo_change', 'Arriving', 'Reveal_secret', 'Successfully_communicate_message', 'Travel', 'Self_motion', 'Exchange_currency', 'Contacting', 'Manipulation', 'Accomplishment', 'Process_continue', 'Getting', 'Statement'}</t>
+  </si>
+  <si>
+    <t>{'Intentional_traversing', 'Cause_change', 'Undergo_change', 'Path_shape', 'Traversing'}</t>
+  </si>
+  <si>
+    <t>{'Change_position_on_a_scale', 'Undressing', 'Sending', 'Body_movement', 'Change_posture', 'Withdraw_from_participation', 'Removing'}</t>
+  </si>
+  <si>
+    <t>{'Sending', 'Being_in_operation', 'Becoming', 'Change_tool', 'Disembarking', 'Leadership', 'Cause_change', 'Contingency', 'Cause_change_of_position_on_a_scale', 'Self_motion', 'Exchange_currency', 'Accomplishment', 'Cause_emotion', 'Topic', 'Assistance', 'Activity_start', 'Reliance', 'Impact', 'Influence_of_event_on_cognizer', 'Intentionally_create', 'Emotion_directed', 'Cause_motion', 'Path_shape', 'Change_position_on_a_scale', 'Quantity', 'Motion', 'Using', 'Undergo_change', 'Arriving', 'Reveal_secret', 'Successfully_communicate_message', 'Travel', 'Contacting', 'Manipulation', 'Operating_a_system', 'Process_continue', 'Getting', 'Statement'}</t>
+  </si>
+  <si>
+    <t>{'Change_position_on_a_scale', 'Claim_ownership', 'Remembering_information', 'Cause_change', 'Motion', 'Commerce_collect', 'Experiencer_obj', 'Body_movement', 'Cutting', 'Undergo_change', 'Remembering_experience', 'Getting', 'Request', 'Cause_motion', 'Exchange_currency', 'Contacting', 'Accomplishment', 'Grasp', 'Change_tool', 'Deserving', 'Memory', 'Remembering_to_do', 'Bringing', 'Gathering_up', 'Evoking', 'Cause_harm'}</t>
+  </si>
+  <si>
+    <t>{'Taking', 'Resurrection', 'Bringing', 'Arriving', 'Removing'}</t>
+  </si>
+  <si>
+    <t>{'Change_position_on_a_scale', 'Motion', 'Cause_change', 'Cause_change_of_position_on_a_scale', 'Undergo_change', 'Travel', 'Emotion_directed', 'Intentionally_create', 'Cause_motion', 'Awareness', 'Becoming', 'Process_continue', 'Experiencer_subj'}</t>
+  </si>
+  <si>
+    <t>{'Resurrection', 'Taking', 'Cause_change', 'Contacting', 'Communication_response', 'Recovery', 'Bringing', 'Sending', 'Frequency', 'Discussion', 'Undergo_change', 'Arriving', 'Commerce_pay', 'Removing'}</t>
+  </si>
+  <si>
+    <t>{'Change_position_on_a_scale', 'Process_end', 'Motion', 'Take_place_of', 'Cause_change_of_position_on_a_scale', 'Arriving', 'Judgment_communication', 'Ride_vehicle', 'Operate_vehicle', 'Travel', 'Self_motion', 'Cause_motion', 'Becoming', 'Firing', 'Process_continue', 'Event', 'Speak_on_topic', 'Desiring', 'Visiting', 'Traversing', 'Statement'}</t>
+  </si>
+  <si>
+    <t>{'Leadership', 'Cause_motion', 'Using', 'Operating_a_system', 'Self_motion', 'Bringing', 'Sending', 'Operate_vehicle', 'Ride_vehicle', 'Being_in_operation', 'Travel', 'Influence_of_event_on_cognizer'}</t>
+  </si>
+  <si>
+    <t>{'Growing_food', 'Giving', 'Cause_to_make_progress', 'Cause_expansion', 'Intentionally_affect', 'Expansion', 'Supply', 'Delivery', 'Causation'}</t>
   </si>
 </sst>
 </file>
@@ -1235,7 +1262,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1290,28 +1317,28 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="J2" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="K2" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="L2" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1325,28 +1352,28 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J3" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="K3" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="L3" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1360,28 +1387,28 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G4" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="J4" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="K4" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="L4" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1395,28 +1422,28 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G5" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="J5" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="K5" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="L5" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1430,28 +1457,28 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F6" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G6" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="J6" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="K6" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L6" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1465,28 +1492,28 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="J7" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="K7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="L7" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1500,28 +1527,28 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G8" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="J8" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="K8" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="L8" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1535,28 +1562,28 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F9" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G9" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="J9" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="K9" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="L9" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1570,28 +1597,28 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G10" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="J10" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="K10" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="L10" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1605,28 +1632,28 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G11" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="J11" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="K11" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="L11" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1640,28 +1667,28 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G12" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="J12" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="K12" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="L12" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1675,28 +1702,28 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="J13" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="K13" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="L13" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1710,28 +1737,28 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G14" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="J14" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="K14" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="L14" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1745,28 +1772,28 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G15" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="J15" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="K15" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="L15" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1780,28 +1807,28 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F16" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G16" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="J16" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="K16" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="L16" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1815,28 +1842,28 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F17" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G17" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="J17" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="K17" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="L17" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1850,28 +1877,28 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F18" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G18" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="J18" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="K18" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="L18" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1885,28 +1912,28 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F19" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G19" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="J19" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="K19" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="L19" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1920,28 +1947,28 @@
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F20" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G20" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="J20" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="K20" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="L20" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1955,28 +1982,28 @@
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F21" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G21" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="J21" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="K21" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="L21" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1990,28 +2017,28 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F22" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G22" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="J22" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="K22" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="L22" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2025,33 +2052,33 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F23" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G23" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="J23" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="K23" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="L23" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24">
-        <v>1147</v>
+        <v>1118</v>
       </c>
       <c r="B24" t="s">
         <v>34</v>
@@ -2060,19 +2087,19 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F24" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="G24" t="s">
-        <v>174</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>179</v>
+      </c>
+      <c r="H24" t="s">
+        <v>197</v>
       </c>
       <c r="I24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J24" t="s">
         <v>227</v>
@@ -2081,12 +2108,12 @@
         <v>252</v>
       </c>
       <c r="L24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="B25" t="s">
         <v>35</v>
@@ -2095,68 +2122,68 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F25" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="G25" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="J25" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="K25" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="L25" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26">
-        <v>1160</v>
+        <v>1151</v>
       </c>
       <c r="B26" t="s">
         <v>36</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F26" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G26" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="J26" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="K26" t="s">
         <v>253</v>
       </c>
       <c r="L26" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="B27" t="s">
         <v>37</v>
@@ -2165,33 +2192,33 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F27" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G27" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="J27" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="K27" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="L27" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28">
-        <v>1201</v>
+        <v>1164</v>
       </c>
       <c r="B28" t="s">
         <v>38</v>
@@ -2200,33 +2227,33 @@
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F28" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G28" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="J28" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="K28" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="L28" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B29" t="s">
         <v>39</v>
@@ -2235,33 +2262,33 @@
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F29" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G29" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="J29" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="K29" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="L29" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30">
-        <v>1235</v>
+        <v>1202</v>
       </c>
       <c r="B30" t="s">
         <v>40</v>
@@ -2270,68 +2297,68 @@
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F30" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G30" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="J30" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K30" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L30" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31">
-        <v>1307</v>
+        <v>1235</v>
       </c>
       <c r="B31" t="s">
         <v>41</v>
       </c>
       <c r="C31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F31" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G31" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="J31" t="s">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="K31" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="L31" t="s">
-        <v>244</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32">
-        <v>1323</v>
+        <v>1307</v>
       </c>
       <c r="B32" t="s">
         <v>42</v>
@@ -2340,33 +2367,33 @@
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F32" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G32" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J32" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K32" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L32" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B33" t="s">
         <v>43</v>
@@ -2375,68 +2402,68 @@
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F33" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="G33" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="J33" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="K33" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="L33" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34">
-        <v>1358</v>
+        <v>1324</v>
       </c>
       <c r="B34" t="s">
         <v>44</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G34" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="J34" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K34" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L34" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="B35" t="s">
         <v>45</v>
@@ -2445,33 +2472,33 @@
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F35" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="G35" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="J35" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="K35" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="L35" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36">
-        <v>1460</v>
+        <v>1360</v>
       </c>
       <c r="B36" t="s">
         <v>46</v>
@@ -2480,33 +2507,33 @@
         <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F36" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="G36" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="J36" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="K36" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="L36" t="s">
-        <v>244</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="B37" t="s">
         <v>47</v>
@@ -2515,33 +2542,33 @@
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F37" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G37" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="J37" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="K37" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="L37" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38">
-        <v>1473</v>
+        <v>1464</v>
       </c>
       <c r="B38" t="s">
         <v>48</v>
@@ -2550,33 +2577,33 @@
         <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F38" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G38" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="J38" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="K38" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="L38" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39">
-        <v>1509</v>
+        <v>1473</v>
       </c>
       <c r="B39" t="s">
         <v>49</v>
@@ -2585,33 +2612,33 @@
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F39" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G39" t="s">
-        <v>49</v>
+        <v>190</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="J39" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="K39" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L39" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40">
-        <v>1524</v>
+        <v>1509</v>
       </c>
       <c r="B40" t="s">
         <v>50</v>
@@ -2620,68 +2647,68 @@
         <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F40" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G40" t="s">
-        <v>183</v>
+        <v>50</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="J40" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K40" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="L40" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41">
-        <v>1542</v>
+        <v>1524</v>
       </c>
       <c r="B41" t="s">
         <v>51</v>
       </c>
       <c r="C41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F41" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="G41" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="J41" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="K41" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="L41" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42">
-        <v>1548</v>
+        <v>1542</v>
       </c>
       <c r="B42" t="s">
         <v>52</v>
@@ -2690,33 +2717,33 @@
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F42" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="G42" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="J42" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="K42" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="L42" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43">
-        <v>1577</v>
+        <v>1548</v>
       </c>
       <c r="B43" t="s">
         <v>53</v>
@@ -2725,33 +2752,33 @@
         <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F43" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G43" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="J43" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="K43" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="L43" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44">
-        <v>1620</v>
+        <v>1577</v>
       </c>
       <c r="B44" t="s">
         <v>54</v>
@@ -2760,33 +2787,33 @@
         <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F44" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G44" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="J44" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="K44" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L44" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45">
-        <v>1650</v>
+        <v>1620</v>
       </c>
       <c r="B45" t="s">
         <v>55</v>
@@ -2795,33 +2822,33 @@
         <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F45" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G45" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="J45" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="K45" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="L45" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46">
-        <v>1661</v>
+        <v>1650</v>
       </c>
       <c r="B46" t="s">
         <v>56</v>
@@ -2830,33 +2857,33 @@
         <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F46" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G46" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="J46" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="K46" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="L46" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47">
-        <v>1685</v>
+        <v>1661</v>
       </c>
       <c r="B47" t="s">
         <v>57</v>
@@ -2865,33 +2892,33 @@
         <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F47" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G47" t="s">
-        <v>187</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
+        <v>193</v>
+      </c>
+      <c r="H47" t="s">
+        <v>198</v>
       </c>
       <c r="I47" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="J47" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="K47" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="L47" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48">
-        <v>1702</v>
+        <v>1685</v>
       </c>
       <c r="B48" t="s">
         <v>58</v>
@@ -2900,33 +2927,33 @@
         <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F48" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="G48" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="J48" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="K48" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="L48" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49">
-        <v>1714</v>
+        <v>1697</v>
       </c>
       <c r="B49" t="s">
         <v>59</v>
@@ -2935,33 +2962,33 @@
         <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F49" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="G49" t="s">
-        <v>188</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
+        <v>179</v>
+      </c>
+      <c r="H49" t="s">
+        <v>197</v>
       </c>
       <c r="I49" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="J49" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="K49" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="L49" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50">
-        <v>1723</v>
+        <v>1702</v>
       </c>
       <c r="B50" t="s">
         <v>60</v>
@@ -2970,33 +2997,33 @@
         <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F50" t="s">
         <v>157</v>
       </c>
       <c r="G50" t="s">
-        <v>189</v>
-      </c>
-      <c r="H50" t="s">
-        <v>62</v>
+        <v>192</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="J50" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="K50" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L50" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51">
-        <v>1725</v>
+        <v>1714</v>
       </c>
       <c r="B51" t="s">
         <v>61</v>
@@ -3005,33 +3032,33 @@
         <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F51" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G51" t="s">
-        <v>189</v>
-      </c>
-      <c r="H51" t="s">
-        <v>62</v>
+        <v>195</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="J51" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="K51" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L51" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="B52" t="s">
         <v>62</v>
@@ -3040,33 +3067,33 @@
         <v>5</v>
       </c>
       <c r="D52" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F52" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G52" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="H52" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I52" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="J52" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="K52" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="L52" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53">
-        <v>1765</v>
+        <v>1725</v>
       </c>
       <c r="B53" t="s">
         <v>63</v>
@@ -3075,33 +3102,33 @@
         <v>5</v>
       </c>
       <c r="D53" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F53" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G53" t="s">
-        <v>183</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
+        <v>196</v>
+      </c>
+      <c r="H53" t="s">
+        <v>64</v>
       </c>
       <c r="I53" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="J53" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="K53" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="L53" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54">
-        <v>1772</v>
+        <v>1726</v>
       </c>
       <c r="B54" t="s">
         <v>64</v>
@@ -3110,28 +3137,98 @@
         <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F54" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G54" t="s">
+        <v>196</v>
+      </c>
+      <c r="H54" t="s">
+        <v>64</v>
+      </c>
+      <c r="I54" t="s">
+        <v>224</v>
+      </c>
+      <c r="J54" t="s">
+        <v>249</v>
+      </c>
+      <c r="K54" t="s">
+        <v>270</v>
+      </c>
+      <c r="L54" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55">
+        <v>1765</v>
+      </c>
+      <c r="B55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
+        <v>120</v>
+      </c>
+      <c r="F55" t="s">
+        <v>163</v>
+      </c>
+      <c r="G55" t="s">
         <v>172</v>
       </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54" t="s">
-        <v>192</v>
-      </c>
-      <c r="J54" t="s">
-        <v>217</v>
-      </c>
-      <c r="K54" t="s">
-        <v>243</v>
-      </c>
-      <c r="L54" t="s">
-        <v>263</v>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55" t="s">
+        <v>206</v>
+      </c>
+      <c r="J55" t="s">
+        <v>232</v>
+      </c>
+      <c r="K55" t="s">
+        <v>257</v>
+      </c>
+      <c r="L55" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56">
+        <v>1772</v>
+      </c>
+      <c r="B56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
+        <v>121</v>
+      </c>
+      <c r="F56" t="s">
+        <v>164</v>
+      </c>
+      <c r="G56" t="s">
+        <v>177</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56" t="s">
+        <v>201</v>
+      </c>
+      <c r="J56" t="s">
+        <v>227</v>
+      </c>
+      <c r="K56" t="s">
+        <v>252</v>
+      </c>
+      <c r="L56" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
